--- a/block_layout.xlsx
+++ b/block_layout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8400" windowHeight="6060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8000" windowHeight="6020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,28 +19,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="5">
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>false_label</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>trial_type</t>
   </si>
   <si>
-    <t>true_label</t>
+    <t>descriptor</t>
+  </si>
+  <si>
+    <t>inducer_1</t>
+  </si>
+  <si>
+    <t>inducer_2</t>
+  </si>
+  <si>
+    <t>target_1</t>
+  </si>
+  <si>
+    <t>target_2</t>
+  </si>
+  <si>
+    <t>target_3</t>
+  </si>
+  <si>
+    <t>target_4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,11 +80,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -94,7 +98,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="211">
+  <cellStyleXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -306,17 +310,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="211">
+  <cellStyles count="215">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -422,6 +428,8 @@
     <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -527,6 +535,8 @@
     <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -856,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -867,82 +877,60 @@
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>1</v>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
